--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="73">
   <si>
     <t>I</t>
   </si>
@@ -189,13 +189,67 @@
   </si>
   <si>
     <t>to_suigitrrt</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>a[-10:10:3]</t>
+  </si>
+  <si>
+    <t>[-5:-1:1]</t>
+  </si>
+  <si>
+    <t>owse</t>
+  </si>
+  <si>
+    <t>[-8:-2:10]</t>
+  </si>
+  <si>
+    <t>[:5:2]</t>
+  </si>
+  <si>
+    <t>Gol</t>
+  </si>
+  <si>
+    <t>[10:14:2]</t>
+  </si>
+  <si>
+    <t>oe</t>
+  </si>
+  <si>
+    <t>[-10:-2:3]</t>
+  </si>
+  <si>
+    <t>mbw</t>
+  </si>
+  <si>
+    <t>[5:12:5]</t>
+  </si>
+  <si>
+    <t>eo</t>
+  </si>
+  <si>
+    <t>[3:-3:3]</t>
+  </si>
+  <si>
+    <t>g_rer</t>
+  </si>
+  <si>
+    <t>[-5:-3:20]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,8 +264,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,6 +282,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,16 +319,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -544,10 +614,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="I8:BF52"/>
+  <dimension ref="I8:BF75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF40" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AT46" sqref="AT46"/>
+    <sheetView tabSelected="1" topLeftCell="AF56" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="AN76" sqref="AN76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,11 +901,11 @@
       <c r="AD16" t="s">
         <v>18</v>
       </c>
-      <c r="AF16" s="2" t="s">
+      <c r="AF16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="AG16" s="2"/>
-      <c r="AH16" s="2"/>
+      <c r="AG16" s="3"/>
+      <c r="AH16" s="3"/>
     </row>
     <row r="17" spans="29:33" x14ac:dyDescent="0.25">
       <c r="AD17" t="s">
@@ -948,10 +1018,10 @@
       <c r="AD27" t="s">
         <v>35</v>
       </c>
-      <c r="AF27" s="2" t="s">
+      <c r="AF27" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AG27" s="2"/>
+      <c r="AG27" s="3"/>
     </row>
     <row r="28" spans="29:33" x14ac:dyDescent="0.25">
       <c r="AC28">
@@ -1020,85 +1090,85 @@
       </c>
     </row>
     <row r="38" spans="29:58" x14ac:dyDescent="0.25">
-      <c r="AF38" s="3" t="s">
+      <c r="AF38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AG38" s="3" t="s">
+      <c r="AG38" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AH38" s="3" t="s">
+      <c r="AH38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AI38" s="3" t="s">
+      <c r="AI38" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="AJ38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="AK38" s="3" t="s">
+      <c r="AJ38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AL38" s="3" t="s">
+      <c r="AL38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AM38" s="3" t="s">
+      <c r="AM38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AN38" s="3" t="s">
+      <c r="AN38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AO38" s="3" t="s">
+      <c r="AO38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AP38" s="3" t="s">
+      <c r="AP38" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AQ38" s="3" t="s">
+      <c r="AQ38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AR38" s="3" t="s">
+      <c r="AR38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AS38" s="3" t="s">
+      <c r="AS38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AT38" s="3" t="s">
+      <c r="AT38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AU38" s="3" t="s">
+      <c r="AU38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="AV38" s="3" t="s">
+      <c r="AV38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AW38" s="3" t="s">
+      <c r="AW38" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="AX38" s="3" t="s">
+      <c r="AX38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="AY38" s="3" t="s">
+      <c r="AY38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="AZ38" s="3" t="s">
+      <c r="AZ38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BA38" s="3" t="s">
+      <c r="BA38" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="BB38" s="3" t="s">
+      <c r="BB38" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="BC38" s="3" t="s">
+      <c r="BC38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="BD38" s="3" t="s">
+      <c r="BD38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="BE38" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="BF38" s="3" t="s">
+      <c r="BE38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="BF38" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1146,10 +1216,10 @@
       <c r="AF46" t="s">
         <v>29</v>
       </c>
-      <c r="AH46" s="2" t="s">
+      <c r="AH46" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="AI46" s="2"/>
+      <c r="AI46" s="3"/>
     </row>
     <row r="47" spans="29:58" x14ac:dyDescent="0.25">
       <c r="AF47" t="s">
@@ -1167,7 +1237,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="32:35" x14ac:dyDescent="0.25">
+    <row r="49" spans="32:54" x14ac:dyDescent="0.25">
       <c r="AF49" t="s">
         <v>33</v>
       </c>
@@ -1175,16 +1245,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="32:35" x14ac:dyDescent="0.25">
+    <row r="50" spans="32:54" x14ac:dyDescent="0.25">
       <c r="AF50" t="s">
         <v>35</v>
       </c>
-      <c r="AH50" s="2" t="s">
+      <c r="AH50" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AI50" s="2"/>
-    </row>
-    <row r="51" spans="32:35" x14ac:dyDescent="0.25">
+      <c r="AI50" s="3"/>
+    </row>
+    <row r="51" spans="32:54" x14ac:dyDescent="0.25">
       <c r="AF51" t="s">
         <v>37</v>
       </c>
@@ -1192,7 +1262,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="32:35" x14ac:dyDescent="0.25">
+    <row r="52" spans="32:54" x14ac:dyDescent="0.25">
       <c r="AF52" t="s">
         <v>38</v>
       </c>
@@ -1201,8 +1271,277 @@
       </c>
       <c r="AI52" s="4"/>
     </row>
+    <row r="61" spans="32:54" x14ac:dyDescent="0.25">
+      <c r="AH61">
+        <v>0</v>
+      </c>
+      <c r="AI61">
+        <v>1</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>3</v>
+      </c>
+      <c r="AL61">
+        <v>4</v>
+      </c>
+      <c r="AM61">
+        <v>5</v>
+      </c>
+      <c r="AN61">
+        <v>6</v>
+      </c>
+      <c r="AO61">
+        <v>7</v>
+      </c>
+      <c r="AP61">
+        <v>8</v>
+      </c>
+      <c r="AQ61">
+        <v>9</v>
+      </c>
+      <c r="AR61">
+        <v>10</v>
+      </c>
+      <c r="AS61">
+        <v>11</v>
+      </c>
+      <c r="AT61">
+        <v>12</v>
+      </c>
+      <c r="AU61">
+        <v>13</v>
+      </c>
+      <c r="AV61">
+        <v>14</v>
+      </c>
+      <c r="AW61">
+        <v>15</v>
+      </c>
+      <c r="AX61">
+        <v>16</v>
+      </c>
+      <c r="AY61">
+        <v>17</v>
+      </c>
+      <c r="AZ61">
+        <v>18</v>
+      </c>
+      <c r="BA61">
+        <v>19</v>
+      </c>
+      <c r="BB61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="32:54" x14ac:dyDescent="0.25">
+      <c r="AH62" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AI62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AJ62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK62" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="AL62" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AM62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AN62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AR62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AU62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AV62" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW62" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX62" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AY62" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="AZ62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA62" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="BB62" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="32:54" x14ac:dyDescent="0.25">
+      <c r="AH63">
+        <v>-21</v>
+      </c>
+      <c r="AI63">
+        <v>-20</v>
+      </c>
+      <c r="AJ63">
+        <v>-19</v>
+      </c>
+      <c r="AK63">
+        <v>-18</v>
+      </c>
+      <c r="AL63">
+        <v>-17</v>
+      </c>
+      <c r="AM63">
+        <v>-16</v>
+      </c>
+      <c r="AN63">
+        <v>-15</v>
+      </c>
+      <c r="AO63">
+        <v>-14</v>
+      </c>
+      <c r="AP63">
+        <v>-13</v>
+      </c>
+      <c r="AQ63">
+        <v>-12</v>
+      </c>
+      <c r="AR63">
+        <v>-11</v>
+      </c>
+      <c r="AS63">
+        <v>-10</v>
+      </c>
+      <c r="AT63">
+        <v>-9</v>
+      </c>
+      <c r="AU63">
+        <v>-8</v>
+      </c>
+      <c r="AV63">
+        <v>-7</v>
+      </c>
+      <c r="AW63">
+        <v>-6</v>
+      </c>
+      <c r="AX63">
+        <v>-5</v>
+      </c>
+      <c r="AY63">
+        <v>-4</v>
+      </c>
+      <c r="AZ63">
+        <v>-3</v>
+      </c>
+      <c r="BA63">
+        <v>-2</v>
+      </c>
+      <c r="BB63">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="67" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG67" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH67" s="4"/>
+      <c r="AI67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG68" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG69" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG70" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG71" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="72" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG72" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG73" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG74" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="75" spans="33:35" x14ac:dyDescent="0.25">
+      <c r="AG75" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="AG67:AH67"/>
     <mergeCell ref="AF16:AH16"/>
     <mergeCell ref="AF27:AG27"/>
     <mergeCell ref="AH46:AI46"/>
